--- a/programming-essentials-zc0005/config.xlsx
+++ b/programming-essentials-zc0005/config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\programming-essentials-zc0005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9843B2B-B186-4587-A5DC-7AB75CFAC188}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65020457-A1FC-451C-8592-8497AE714CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="120" windowWidth="28800" windowHeight="19305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="46455" yWindow="195" windowWidth="28800" windowHeight="19305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -252,12 +252,6 @@
     <t>Canvas tile image.png</t>
   </si>
   <si>
-    <t>Joren Synaeve, Joeri Verlooy, Matthias Claessen, Indy Hendrickx</t>
-  </si>
-  <si>
-    <t>joren.synaeve@thomasmore.be,joeri.verlooy@thomasmore.be,matthias.claessen@thomasmore.be,indy.hendrickx@thomasmore.be</t>
-  </si>
-  <si>
     <t>codegrade_optional.html</t>
   </si>
   <si>
@@ -558,9 +552,6 @@
     <t>11 - Debugging</t>
   </si>
   <si>
-    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/ERTv-9Iw_4REkHhNtgWr-EMBZ0AsPc3Uyl891mxnDyfBQQ?e=S2XGUa</t>
-  </si>
-  <si>
     <t>Link naar de oplossingen</t>
   </si>
   <si>
@@ -645,9 +636,6 @@
     <t>GitHub classroom assignment</t>
   </si>
   <si>
-    <t>https://classroom.github.com/a/SVQ8tyzw</t>
-  </si>
-  <si>
     <t>Link naar de oefeningen</t>
   </si>
   <si>
@@ -658,6 +646,18 @@
   </si>
   <si>
     <t>https://app.codegra.de/</t>
+  </si>
+  <si>
+    <t>Evelien Van Dingenen, Kris De Cock</t>
+  </si>
+  <si>
+    <t>evelien.vandingenen@thomasmore.be,kris.decock@thomasmore.be</t>
+  </si>
+  <si>
+    <t>https://thomasmore365-my.sharepoint.com/:p:/g/personal/u0134243_thomasmore_be/EXGedbVzZ-lDpyETCutkWjIBZEN8o5mENwP-a0uNTQ7j6A?e=Snch58</t>
+  </si>
+  <si>
+    <t>https://classroom.github.com/a/uosoSqdT</t>
   </si>
 </sst>
 </file>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1114,7 @@
         <v>24</v>
       </c>
       <c r="B1">
-        <v>37244</v>
+        <v>37260</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1138,7 +1138,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C0AF-0EEA-45EA-A4B8-73E6C5261177}">
   <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1336,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1356,7 +1356,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1376,7 +1376,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1465,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -1542,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1562,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1633,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1675,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1"/>
       <c r="F24">
@@ -1685,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1">
         <v>45229.999305555553</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C26" s="1">
         <v>45229.999305555553</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1733,7 +1733,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C27" s="1">
         <v>45229.999305555553</v>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1753,7 +1753,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C28" s="1">
         <v>45229.999305555553</v>
@@ -1765,7 +1765,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="1">
         <v>45229.999305555553</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="1"/>
       <c r="F30">
@@ -1803,7 +1803,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1811,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1"/>
       <c r="F31">
@@ -1821,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1"/>
       <c r="F32">
@@ -1839,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="1"/>
       <c r="F33">
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1865,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34">
         <v>10</v>
@@ -1874,7 +1874,7 @@
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1"/>
       <c r="F35">
@@ -1892,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1900,7 +1900,7 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="1">
         <v>45229.999305555553</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="1">
         <v>45229.999305555553</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1940,7 +1940,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="1">
         <v>45229.999305555553</v>
@@ -1952,7 +1952,7 @@
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1960,7 +1960,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C39" s="1">
         <v>45229.999305555553</v>
@@ -1972,7 +1972,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1980,7 +1980,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C40" s="1">
         <v>45229.999305555553</v>
@@ -1992,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2000,7 +2000,7 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C41" s="1"/>
       <c r="F41">
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1"/>
       <c r="F42">
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43">
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2054,7 +2054,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1"/>
       <c r="F44">
@@ -2064,7 +2064,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2072,7 +2072,7 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -2081,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2089,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1"/>
       <c r="F46">
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2107,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C47" s="1">
         <v>45229.999305555553</v>
@@ -2119,7 +2119,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C48" s="1">
         <v>45229.999305555553</v>
@@ -2139,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C49" s="1">
         <v>45229.999305555553</v>
@@ -2159,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C50" s="1">
         <v>45229.999305555553</v>
@@ -2179,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2187,7 +2187,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C51" s="1">
         <v>45229.999305555553</v>
@@ -2199,7 +2199,7 @@
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2207,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C52" s="1"/>
       <c r="F52">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C53" s="1"/>
       <c r="F53">
@@ -2235,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C54" s="1"/>
       <c r="F54">
@@ -2253,7 +2253,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2261,7 +2261,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C55" s="1"/>
       <c r="F55">
@@ -2271,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>10</v>
@@ -2288,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2296,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="1"/>
       <c r="F57">
@@ -2306,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C58" s="1">
         <v>45229.999305555553</v>
@@ -2326,7 +2326,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C59" s="1">
         <v>45229.999305555553</v>
@@ -2346,7 +2346,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C60" s="1">
         <v>45229.999305555553</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2374,7 +2374,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C61" s="1">
         <v>45229.999305555553</v>
@@ -2386,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2394,7 +2394,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" s="1">
         <v>45229.999305555553</v>
@@ -2406,7 +2406,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2414,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63" s="1"/>
       <c r="F63">
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64" s="1"/>
       <c r="F64">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1"/>
       <c r="F65">
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2468,7 +2468,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66" s="1"/>
       <c r="F66">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2486,7 +2486,7 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -2495,7 +2495,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68" s="1"/>
       <c r="F68">
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2521,7 +2521,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1">
         <v>45277.999305555553</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,7 +2541,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C70" s="1">
         <v>45277.999305555553</v>
@@ -2553,7 +2553,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C71" s="1">
         <v>45277.999305555553</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C72" s="1">
         <v>45277.999305555553</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2601,7 +2601,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C73" s="1">
         <v>45277.999305555553</v>
@@ -2613,7 +2613,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="1"/>
       <c r="F74">
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2639,7 +2639,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C75" s="1"/>
       <c r="F75">
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2657,7 +2657,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C76" s="1"/>
       <c r="F76">
@@ -2667,7 +2667,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2675,7 +2675,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="1"/>
       <c r="F77">
@@ -2685,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F78">
         <v>10</v>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2710,7 +2710,7 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C79" s="1"/>
       <c r="F79">
@@ -2720,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2728,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1">
         <v>45277.999305555553</v>
@@ -2740,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,7 +2748,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1">
         <v>45277.999305555553</v>
@@ -2760,7 +2760,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2768,7 +2768,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1">
         <v>45277.999305555553</v>
@@ -2780,7 +2780,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2788,7 +2788,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1">
         <v>45277.999305555553</v>
@@ -2800,7 +2800,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2808,7 +2808,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1">
         <v>45277.999305555553</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2828,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C85" s="1"/>
       <c r="F85">
@@ -2838,7 +2838,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C86" s="1"/>
       <c r="F86">
@@ -2856,7 +2856,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2864,7 +2864,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C87" s="1"/>
       <c r="F87">
@@ -2874,7 +2874,7 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2882,7 +2882,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C88" s="1"/>
       <c r="F88">
@@ -2892,7 +2892,7 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2900,7 +2900,7 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -2909,7 +2909,7 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2917,7 +2917,7 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C90" s="1"/>
       <c r="F90">
@@ -2927,7 +2927,7 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2935,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
         <v>45277.999305555553</v>
@@ -2947,7 +2947,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2955,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1">
         <v>45277.999305555553</v>
@@ -2967,7 +2967,7 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2975,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C93" s="1">
         <v>45277.999305555553</v>
@@ -2987,7 +2987,7 @@
         <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2995,7 +2995,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C94" s="1">
         <v>45277.999305555553</v>
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3015,7 +3015,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C95" s="1">
         <v>45277.999305555553</v>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3035,7 +3035,7 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C96" s="1"/>
       <c r="F96">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C97" s="1"/>
       <c r="F97">
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -3071,7 +3071,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C98" s="1"/>
       <c r="F98">
@@ -3081,7 +3081,7 @@
         <v>1</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -3089,7 +3089,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C99" s="1"/>
       <c r="F99">
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -3107,7 +3107,7 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F100">
         <v>10</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -3124,7 +3124,7 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C101" s="1"/>
       <c r="F101">
@@ -3134,7 +3134,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
@@ -3142,7 +3142,7 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C102" s="1">
         <v>45277.999305555553</v>
@@ -3154,7 +3154,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3162,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C103" s="1">
         <v>45277.999305555553</v>
@@ -3174,7 +3174,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -3182,7 +3182,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C104" s="1">
         <v>45277.999305555553</v>
@@ -3194,7 +3194,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -3202,7 +3202,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C105" s="1">
         <v>45277.999305555553</v>
@@ -3214,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="H105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C106" s="1">
         <v>45277.999305555553</v>
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="H106" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3242,7 +3242,7 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" s="1"/>
       <c r="F107">
@@ -3252,7 +3252,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C108" s="1"/>
       <c r="F108">
@@ -3270,7 +3270,7 @@
         <v>1</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3278,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C109" s="1"/>
       <c r="F109">
@@ -3288,7 +3288,7 @@
         <v>1</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3296,7 +3296,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C110" s="1"/>
       <c r="F110">
@@ -3306,7 +3306,7 @@
         <v>1</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -3323,7 +3323,7 @@
         <v>1</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3485,7 +3485,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -3493,7 +3493,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -3517,7 +3517,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3525,7 +3525,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3541,7 +3541,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3573,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
   <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3615,7 +3615,7 @@
         <v>61</v>
       </c>
       <c r="I1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3654,13 +3654,13 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -3671,13 +3671,13 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -3688,13 +3688,13 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -3705,13 +3705,13 @@
         <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -3719,10 +3719,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
         <v>174</v>
-      </c>
-      <c r="C8" t="s">
-        <v>177</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3757,10 +3757,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -3962,10 +3962,10 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3982,13 +3982,13 @@
         <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3996,13 +3996,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" t="s">
         <v>174</v>
-      </c>
-      <c r="C24" t="s">
-        <v>177</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s">
         <v>64</v>
@@ -4026,7 +4026,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -4034,13 +4034,13 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C26" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -4052,7 +4052,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
         <v>62</v>
@@ -4069,7 +4069,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
         <v>62</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B29" t="s">
         <v>62</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B30" t="s">
         <v>62</v>
@@ -4120,7 +4120,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>62</v>
@@ -4137,7 +4137,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B32" t="s">
         <v>62</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B34" t="s">
         <v>62</v>
@@ -4188,7 +4188,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
         <v>62</v>
@@ -4205,7 +4205,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
         <v>62</v>
@@ -4222,7 +4222,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
@@ -4239,13 +4239,13 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4256,19 +4256,19 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4276,13 +4276,13 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" t="s">
         <v>174</v>
-      </c>
-      <c r="C40" t="s">
-        <v>177</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -4294,7 +4294,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4314,13 +4314,13 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B43" t="s">
         <v>62</v>
@@ -4341,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -4358,7 +4358,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
         <v>62</v>
@@ -4375,7 +4375,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B46" t="s">
         <v>62</v>
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B47" t="s">
         <v>62</v>
@@ -4409,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>62</v>
@@ -4426,7 +4426,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4434,7 +4434,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B49" t="s">
         <v>62</v>
@@ -4443,7 +4443,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B50" t="s">
         <v>62</v>
@@ -4460,7 +4460,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4468,7 +4468,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B51" t="s">
         <v>62</v>
@@ -4477,7 +4477,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
         <v>62</v>
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4502,7 +4502,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
@@ -4511,7 +4511,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C54" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -4536,19 +4536,19 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B55" t="s">
         <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="F55" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4556,13 +4556,13 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s">
         <v>174</v>
-      </c>
-      <c r="C56" t="s">
-        <v>177</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
         <v>64</v>
@@ -4586,7 +4586,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -4594,13 +4594,13 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4612,7 +4612,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
         <v>62</v>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
         <v>62</v>
@@ -4638,7 +4638,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -4646,7 +4646,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4663,7 +4663,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -4672,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
         <v>62</v>
@@ -4706,7 +4706,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -4714,7 +4714,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
         <v>62</v>
@@ -4723,7 +4723,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4731,7 +4731,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
         <v>62</v>
@@ -4740,7 +4740,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
         <v>62</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -4765,7 +4765,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B68" t="s">
         <v>62</v>
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -4782,7 +4782,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
         <v>62</v>
@@ -4791,7 +4791,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -4799,13 +4799,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -4816,19 +4816,19 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
         <v>64</v>
       </c>
       <c r="C71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="F71" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4836,13 +4836,13 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
         <v>174</v>
-      </c>
-      <c r="C72" t="s">
-        <v>177</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B73" t="s">
         <v>64</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -4874,13 +4874,13 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4892,7 +4892,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B75" t="s">
         <v>62</v>
@@ -4901,7 +4901,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -4909,7 +4909,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B76" t="s">
         <v>62</v>
@@ -4918,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B77" t="s">
         <v>62</v>
@@ -4935,7 +4935,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4943,7 +4943,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s">
         <v>62</v>
@@ -4952,7 +4952,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B79" t="s">
         <v>62</v>
@@ -4969,7 +4969,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
         <v>62</v>
@@ -4986,7 +4986,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -4994,7 +4994,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
         <v>62</v>
@@ -5003,7 +5003,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -5011,7 +5011,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B82" t="s">
         <v>62</v>
@@ -5020,7 +5020,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B83" t="s">
         <v>62</v>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -5045,7 +5045,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B84" t="s">
         <v>62</v>
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -5062,7 +5062,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
         <v>62</v>
@@ -5071,7 +5071,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -5079,13 +5079,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C86" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -5096,19 +5096,19 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" t="s">
         <v>64</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="F87" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5116,13 +5116,13 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B88" t="s">
+        <v>171</v>
+      </c>
+      <c r="C88" t="s">
         <v>174</v>
-      </c>
-      <c r="C88" t="s">
-        <v>177</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B89" t="s">
         <v>64</v>
@@ -5146,7 +5146,7 @@
         <v>1</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -5154,13 +5154,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
         <v>62</v>
@@ -5181,7 +5181,7 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B92" t="s">
         <v>62</v>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -5206,7 +5206,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B93" t="s">
         <v>62</v>
@@ -5215,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B94" t="s">
         <v>62</v>
@@ -5232,7 +5232,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -5240,7 +5240,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
         <v>62</v>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -5257,7 +5257,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B96" t="s">
         <v>62</v>
@@ -5266,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B97" t="s">
         <v>62</v>
@@ -5283,7 +5283,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -5291,7 +5291,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B98" t="s">
         <v>62</v>
@@ -5300,7 +5300,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5308,7 +5308,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
         <v>62</v>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
         <v>62</v>
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5342,7 +5342,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B101" t="s">
         <v>62</v>
@@ -5351,7 +5351,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C102" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D102">
         <v>0</v>
@@ -5376,19 +5376,19 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
         <v>64</v>
       </c>
       <c r="C103" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D103">
         <v>0</v>
       </c>
       <c r="F103" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5396,13 +5396,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B104" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" t="s">
         <v>174</v>
-      </c>
-      <c r="C104" t="s">
-        <v>177</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5414,7 +5414,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
         <v>64</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -5434,13 +5434,13 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C106" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5452,7 +5452,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B107" t="s">
         <v>62</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
         <v>62</v>
@@ -5478,7 +5478,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -5486,7 +5486,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B109" t="s">
         <v>62</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B110" t="s">
         <v>62</v>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B111" t="s">
         <v>62</v>
@@ -5529,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5537,7 +5537,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B112" t="s">
         <v>62</v>
@@ -5546,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5554,7 +5554,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B113" t="s">
         <v>62</v>
@@ -5563,7 +5563,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5571,7 +5571,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B114" t="s">
         <v>62</v>
@@ -5580,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B115" t="s">
         <v>62</v>
@@ -5597,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5605,7 +5605,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B116" t="s">
         <v>62</v>
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5622,7 +5622,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B117" t="s">
         <v>62</v>
@@ -5631,7 +5631,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5639,13 +5639,13 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D118">
         <v>0</v>
@@ -5656,19 +5656,19 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B119" t="s">
         <v>64</v>
       </c>
       <c r="C119" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D119">
         <v>0</v>
       </c>
       <c r="F119" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5676,13 +5676,13 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B120" t="s">
+        <v>171</v>
+      </c>
+      <c r="C120" t="s">
         <v>174</v>
-      </c>
-      <c r="C120" t="s">
-        <v>177</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5694,7 +5694,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B121" t="s">
         <v>64</v>
@@ -5706,7 +5706,7 @@
         <v>1</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5714,13 +5714,13 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C122" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5732,7 +5732,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B123" t="s">
         <v>62</v>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B124" t="s">
         <v>62</v>
@@ -5758,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5766,7 +5766,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B125" t="s">
         <v>62</v>
@@ -5775,7 +5775,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5783,7 +5783,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B126" t="s">
         <v>62</v>
@@ -5792,7 +5792,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B127" t="s">
         <v>62</v>
@@ -5809,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5817,7 +5817,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B128" t="s">
         <v>62</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5834,7 +5834,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B129" t="s">
         <v>62</v>
@@ -5843,7 +5843,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5851,7 +5851,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
         <v>62</v>
@@ -5860,7 +5860,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
         <v>62</v>
@@ -5877,7 +5877,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5885,7 +5885,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B132" t="s">
         <v>62</v>
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B133" t="s">
         <v>62</v>
@@ -5911,7 +5911,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5919,13 +5919,13 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -5936,19 +5936,19 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B135" t="s">
         <v>64</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="F135" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5956,13 +5956,13 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B136" t="s">
+        <v>171</v>
+      </c>
+      <c r="C136" t="s">
         <v>174</v>
-      </c>
-      <c r="C136" t="s">
-        <v>177</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5974,7 +5974,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B137" t="s">
         <v>64</v>
@@ -5986,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -5994,13 +5994,13 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C138" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B139" t="s">
         <v>62</v>
@@ -6021,7 +6021,7 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B140" t="s">
         <v>62</v>
@@ -6038,7 +6038,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6046,7 +6046,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B141" t="s">
         <v>62</v>
@@ -6055,7 +6055,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B142" t="s">
         <v>62</v>
@@ -6072,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6080,7 +6080,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
         <v>62</v>
@@ -6089,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
         <v>62</v>
@@ -6106,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B145" t="s">
         <v>62</v>
@@ -6123,7 +6123,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -6131,7 +6131,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B146" t="s">
         <v>62</v>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -6148,7 +6148,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B147" t="s">
         <v>62</v>
@@ -6157,7 +6157,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -6165,7 +6165,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
         <v>62</v>
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -6182,7 +6182,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B149" t="s">
         <v>62</v>
@@ -6191,7 +6191,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6199,13 +6199,13 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C150" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -6216,19 +6216,19 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B151" t="s">
         <v>64</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D151">
         <v>0</v>
       </c>
       <c r="F151" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6236,13 +6236,13 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B152" t="s">
+        <v>171</v>
+      </c>
+      <c r="C152" t="s">
         <v>174</v>
-      </c>
-      <c r="C152" t="s">
-        <v>177</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B153" t="s">
         <v>64</v>
@@ -6266,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -6274,13 +6274,13 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B154" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C154" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -6292,7 +6292,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B155" t="s">
         <v>62</v>
@@ -6301,7 +6301,7 @@
         <v>1</v>
       </c>
       <c r="E155" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B156" t="s">
         <v>62</v>
@@ -6318,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6326,7 +6326,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B157" t="s">
         <v>62</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B158" t="s">
         <v>62</v>
@@ -6352,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B159" t="s">
         <v>62</v>
@@ -6369,7 +6369,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B160" t="s">
         <v>62</v>
@@ -6386,7 +6386,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B161" t="s">
         <v>62</v>
@@ -6403,7 +6403,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B162" t="s">
         <v>62</v>
@@ -6420,7 +6420,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163" t="s">
         <v>62</v>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B164" t="s">
         <v>62</v>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B165" t="s">
         <v>62</v>
@@ -6471,7 +6471,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6479,13 +6479,13 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D166">
         <v>0</v>
@@ -6496,19 +6496,19 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B167" t="s">
         <v>64</v>
       </c>
       <c r="C167" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D167">
         <v>0</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -6533,11 +6533,12 @@
     <hyperlink ref="F137" r:id="rId9" xr:uid="{BBC1F586-A111-4249-9776-C2B3698C39CB}"/>
     <hyperlink ref="F153" r:id="rId10" xr:uid="{6A654793-5A62-49E1-929A-410DB9EC0DD3}"/>
     <hyperlink ref="F89" r:id="rId11" xr:uid="{1512ACF6-D2A6-4364-81B1-D816FFF32408}"/>
+    <hyperlink ref="F5" r:id="rId12" xr:uid="{1C3E1DFE-5FAA-4AB7-BF0B-0AC40EB08CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId13"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>

--- a/programming-essentials-zc0005/config.xlsx
+++ b/programming-essentials-zc0005/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\canvas-course-scaffolder-with-course-configs\programming-essentials-zc0005\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joren\Documents\repositories\canvas-course-scaffolder-with-templates\programming-essentials-zc0005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65020457-A1FC-451C-8592-8497AE714CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B4BF7A-7F34-4352-B083-E1010CB6A5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46455" yWindow="195" windowWidth="28800" windowHeight="19305" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Algemene info" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="205">
   <si>
     <t>Naam</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>https://classroom.github.com/a/uosoSqdT</t>
+  </si>
+  <si>
+    <t>CodeGrade registratie</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -752,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78A4F8C0-4584-4066-8636-00C97E5C4CBC}" name="Tabel3" displayName="Tabel3" ref="A1:H111" totalsRowShown="0">
-  <autoFilter ref="A1:H111" xr:uid="{78A4F8C0-4584-4066-8636-00C97E5C4CBC}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{78A4F8C0-4584-4066-8636-00C97E5C4CBC}" name="Tabel3" displayName="Tabel3" ref="A1:H112" totalsRowShown="0">
+  <autoFilter ref="A1:H112" xr:uid="{78A4F8C0-4584-4066-8636-00C97E5C4CBC}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -805,8 +808,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}" name="Tabel3567" displayName="Tabel3567" ref="A1:I167" totalsRowShown="0">
-  <autoFilter ref="A1:I167" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}" name="Tabel3567" displayName="Tabel3567" ref="A1:I168" totalsRowShown="0">
+  <autoFilter ref="A1:I168" xr:uid="{B8351439-171F-43CA-8A27-46439B0C8D5A}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{4F1B940E-7EAD-48A5-AA1E-A5E5ED525C5C}" name="Module"/>
     <tableColumn id="2" xr3:uid="{54A84E46-41BB-4012-84B6-2A4A1FB473F4}" name="Type"/>
@@ -1217,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1181C0AF-0EEA-45EA-A4B8-73E6C5261177}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,17 +1269,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1"/>
+        <v>204</v>
+      </c>
       <c r="F2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1284,11 +1283,9 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45229.999305555553</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="F3">
         <v>10</v>
       </c>
@@ -1296,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1304,7 +1301,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>45229.999305555553</v>
@@ -1324,7 +1321,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>45229.999305555553</v>
@@ -1344,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>45229.999305555553</v>
@@ -1364,7 +1361,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>45229.999305555553</v>
@@ -1384,9 +1381,11 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="C8" s="1">
+        <v>45229.999305555553</v>
+      </c>
       <c r="F8">
         <v>10</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1402,7 +1401,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1"/>
       <c r="F9">
@@ -1420,7 +1419,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="1"/>
       <c r="F10">
@@ -1438,7 +1437,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1"/>
       <c r="F11">
@@ -1456,8 +1455,9 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="F12">
         <v>10</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -1490,10 +1490,7 @@
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45229.999305555553</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1502,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1510,7 +1507,7 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1">
         <v>45229.999305555553</v>
@@ -1530,7 +1527,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>45229.999305555553</v>
@@ -1550,7 +1547,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17" s="1">
         <v>45229.999305555553</v>
@@ -1570,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1">
         <v>45229.999305555553</v>
@@ -1590,7 +1587,10 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>54</v>
+      </c>
+      <c r="C19" s="1">
+        <v>45229.999305555553</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1624,7 +1624,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1658,7 +1658,7 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1675,9 +1675,8 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>44</v>
+      </c>
       <c r="F24">
         <v>10</v>
       </c>
@@ -1693,11 +1692,9 @@
         <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45229.999305555553</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="F25">
         <v>10</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1713,7 +1710,7 @@
         <v>3</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="1">
         <v>45229.999305555553</v>
@@ -1733,7 +1730,7 @@
         <v>3</v>
       </c>
       <c r="B27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C27" s="1">
         <v>45229.999305555553</v>
@@ -1753,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C28" s="1">
         <v>45229.999305555553</v>
@@ -1773,7 +1770,7 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1">
         <v>45229.999305555553</v>
@@ -1793,9 +1790,11 @@
         <v>3</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>122</v>
+      </c>
+      <c r="C30" s="1">
+        <v>45229.999305555553</v>
+      </c>
       <c r="F30">
         <v>10</v>
       </c>
@@ -1803,7 +1802,7 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1811,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1"/>
       <c r="F31">
@@ -1829,7 +1828,7 @@
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1"/>
       <c r="F32">
@@ -1847,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1"/>
       <c r="F33">
@@ -1865,8 +1864,9 @@
         <v>3</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C34" s="1"/>
       <c r="F34">
         <v>10</v>
       </c>
@@ -1882,9 +1882,8 @@
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>75</v>
+      </c>
       <c r="F35">
         <v>10</v>
       </c>
@@ -1900,11 +1899,9 @@
         <v>3</v>
       </c>
       <c r="B36" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="1">
-        <v>45229.999305555553</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C36" s="1"/>
       <c r="F36">
         <v>10</v>
       </c>
@@ -1912,7 +1909,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1920,7 +1917,7 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C37" s="1">
         <v>45229.999305555553</v>
@@ -1940,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1">
         <v>45229.999305555553</v>
@@ -1960,7 +1957,7 @@
         <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C39" s="1">
         <v>45229.999305555553</v>
@@ -1980,7 +1977,7 @@
         <v>3</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C40" s="1">
         <v>45229.999305555553</v>
@@ -2000,9 +1997,11 @@
         <v>3</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45229.999305555553</v>
+      </c>
       <c r="F41">
         <v>10</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2018,7 +2017,7 @@
         <v>3</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1"/>
       <c r="F42">
@@ -2036,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1"/>
       <c r="F43">
@@ -2054,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C44" s="1"/>
       <c r="F44">
@@ -2072,8 +2071,9 @@
         <v>3</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C45" s="1"/>
       <c r="F45">
         <v>10</v>
       </c>
@@ -2089,9 +2089,8 @@
         <v>3</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1"/>
+        <v>81</v>
+      </c>
       <c r="F46">
         <v>10</v>
       </c>
@@ -2107,11 +2106,9 @@
         <v>3</v>
       </c>
       <c r="B47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="1">
-        <v>45229.999305555553</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="F47">
         <v>10</v>
       </c>
@@ -2119,7 +2116,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2127,7 +2124,7 @@
         <v>3</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C48" s="1">
         <v>45229.999305555553</v>
@@ -2147,7 +2144,7 @@
         <v>3</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="1">
         <v>45229.999305555553</v>
@@ -2167,7 +2164,7 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="1">
         <v>45229.999305555553</v>
@@ -2187,7 +2184,7 @@
         <v>3</v>
       </c>
       <c r="B51" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="1">
         <v>45229.999305555553</v>
@@ -2207,9 +2204,11 @@
         <v>3</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45229.999305555553</v>
+      </c>
       <c r="F52">
         <v>10</v>
       </c>
@@ -2217,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1"/>
       <c r="F53">
@@ -2243,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C54" s="1"/>
       <c r="F54">
@@ -2261,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C55" s="1"/>
       <c r="F55">
@@ -2279,8 +2278,9 @@
         <v>3</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C56" s="1"/>
       <c r="F56">
         <v>10</v>
       </c>
@@ -2296,9 +2296,8 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="1"/>
+        <v>87</v>
+      </c>
       <c r="F57">
         <v>10</v>
       </c>
@@ -2314,11 +2313,9 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="1">
-        <v>45229.999305555553</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="F58">
         <v>10</v>
       </c>
@@ -2326,7 +2323,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2334,7 +2331,7 @@
         <v>3</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C59" s="1">
         <v>45229.999305555553</v>
@@ -2354,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="B60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="1">
         <v>45229.999305555553</v>
@@ -2374,7 +2371,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="1">
         <v>45229.999305555553</v>
@@ -2394,7 +2391,7 @@
         <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" s="1">
         <v>45229.999305555553</v>
@@ -2414,9 +2411,11 @@
         <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45229.999305555553</v>
+      </c>
       <c r="F63">
         <v>10</v>
       </c>
@@ -2424,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2432,7 +2431,7 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="1"/>
       <c r="F64">
@@ -2450,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C65" s="1"/>
       <c r="F65">
@@ -2468,7 +2467,7 @@
         <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1"/>
       <c r="F66">
@@ -2486,8 +2485,9 @@
         <v>3</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="F67">
         <v>10</v>
       </c>
@@ -2503,9 +2503,8 @@
         <v>3</v>
       </c>
       <c r="B68" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>93</v>
+      </c>
       <c r="F68">
         <v>10</v>
       </c>
@@ -2521,11 +2520,9 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
-      </c>
-      <c r="C69" s="1">
-        <v>45277.999305555553</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C69" s="1"/>
       <c r="F69">
         <v>10</v>
       </c>
@@ -2533,7 +2530,7 @@
         <v>1</v>
       </c>
       <c r="H69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2541,7 +2538,7 @@
         <v>3</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="1">
         <v>45277.999305555553</v>
@@ -2561,7 +2558,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C71" s="1">
         <v>45277.999305555553</v>
@@ -2581,7 +2578,7 @@
         <v>3</v>
       </c>
       <c r="B72" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="1">
         <v>45277.999305555553</v>
@@ -2601,7 +2598,7 @@
         <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C73" s="1">
         <v>45277.999305555553</v>
@@ -2621,9 +2618,11 @@
         <v>3</v>
       </c>
       <c r="B74" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45277.999305555553</v>
+      </c>
       <c r="F74">
         <v>10</v>
       </c>
@@ -2631,7 +2630,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2639,7 +2638,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1"/>
       <c r="F75">
@@ -2657,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C76" s="1"/>
       <c r="F76">
@@ -2675,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="B77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C77" s="1"/>
       <c r="F77">
@@ -2693,8 +2692,9 @@
         <v>3</v>
       </c>
       <c r="B78" t="s">
-        <v>117</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C78" s="1"/>
       <c r="F78">
         <v>10</v>
       </c>
@@ -2710,9 +2710,8 @@
         <v>3</v>
       </c>
       <c r="B79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C79" s="1"/>
+        <v>117</v>
+      </c>
       <c r="F79">
         <v>10</v>
       </c>
@@ -2728,11 +2727,9 @@
         <v>3</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="1">
-        <v>45277.999305555553</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C80" s="1"/>
       <c r="F80">
         <v>10</v>
       </c>
@@ -2740,7 +2737,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2748,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1">
         <v>45277.999305555553</v>
@@ -2768,7 +2765,7 @@
         <v>3</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="1">
         <v>45277.999305555553</v>
@@ -2788,7 +2785,7 @@
         <v>3</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="1">
         <v>45277.999305555553</v>
@@ -2808,7 +2805,7 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="1">
         <v>45277.999305555553</v>
@@ -2828,9 +2825,11 @@
         <v>3</v>
       </c>
       <c r="B85" t="s">
-        <v>96</v>
-      </c>
-      <c r="C85" s="1"/>
+        <v>147</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45277.999305555553</v>
+      </c>
       <c r="F85">
         <v>10</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2846,7 +2845,7 @@
         <v>3</v>
       </c>
       <c r="B86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C86" s="1"/>
       <c r="F86">
@@ -2864,7 +2863,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C87" s="1"/>
       <c r="F87">
@@ -2882,7 +2881,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" s="1"/>
       <c r="F88">
@@ -2900,8 +2899,9 @@
         <v>3</v>
       </c>
       <c r="B89" t="s">
-        <v>100</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C89" s="1"/>
       <c r="F89">
         <v>10</v>
       </c>
@@ -2917,9 +2917,8 @@
         <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>101</v>
-      </c>
-      <c r="C90" s="1"/>
+        <v>100</v>
+      </c>
       <c r="F90">
         <v>10</v>
       </c>
@@ -2935,11 +2934,9 @@
         <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="1">
-        <v>45277.999305555553</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C91" s="1"/>
       <c r="F91">
         <v>10</v>
       </c>
@@ -2947,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2955,7 +2952,7 @@
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1">
         <v>45277.999305555553</v>
@@ -2975,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="B93" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1">
         <v>45277.999305555553</v>
@@ -2995,7 +2992,7 @@
         <v>3</v>
       </c>
       <c r="B94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1">
         <v>45277.999305555553</v>
@@ -3015,7 +3012,7 @@
         <v>3</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C95" s="1">
         <v>45277.999305555553</v>
@@ -3035,9 +3032,11 @@
         <v>3</v>
       </c>
       <c r="B96" t="s">
-        <v>102</v>
-      </c>
-      <c r="C96" s="1"/>
+        <v>152</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45277.999305555553</v>
+      </c>
       <c r="F96">
         <v>10</v>
       </c>
@@ -3045,7 +3044,7 @@
         <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,7 +3052,7 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C97" s="1"/>
       <c r="F97">
@@ -3071,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="B98" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C98" s="1"/>
       <c r="F98">
@@ -3089,7 +3088,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C99" s="1"/>
       <c r="F99">
@@ -3107,8 +3106,9 @@
         <v>3</v>
       </c>
       <c r="B100" t="s">
-        <v>106</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C100" s="1"/>
       <c r="F100">
         <v>10</v>
       </c>
@@ -3124,9 +3124,8 @@
         <v>3</v>
       </c>
       <c r="B101" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" s="1"/>
+        <v>106</v>
+      </c>
       <c r="F101">
         <v>10</v>
       </c>
@@ -3142,11 +3141,9 @@
         <v>3</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
-      </c>
-      <c r="C102" s="1">
-        <v>45277.999305555553</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C102" s="1"/>
       <c r="F102">
         <v>10</v>
       </c>
@@ -3154,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -3162,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C103" s="1">
         <v>45277.999305555553</v>
@@ -3182,7 +3179,7 @@
         <v>3</v>
       </c>
       <c r="B104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C104" s="1">
         <v>45277.999305555553</v>
@@ -3202,7 +3199,7 @@
         <v>3</v>
       </c>
       <c r="B105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C105" s="1">
         <v>45277.999305555553</v>
@@ -3222,7 +3219,7 @@
         <v>3</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C106" s="1">
         <v>45277.999305555553</v>
@@ -3242,9 +3239,11 @@
         <v>3</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45277.999305555553</v>
+      </c>
       <c r="F107">
         <v>10</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="H107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3260,7 +3259,7 @@
         <v>3</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C108" s="1"/>
       <c r="F108">
@@ -3278,7 +3277,7 @@
         <v>3</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="1"/>
       <c r="F109">
@@ -3296,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C110" s="1"/>
       <c r="F110">
@@ -3314,8 +3313,9 @@
         <v>3</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="C111" s="1"/>
       <c r="F111">
         <v>10</v>
       </c>
@@ -3326,9 +3326,26 @@
         <v>68</v>
       </c>
     </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>3</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{9615F4C8-0E91-4AB7-852A-7FF69A4C80AA}">
       <formula1>Opdrachtgroepen</formula1>
     </dataValidation>
@@ -3571,10 +3588,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E63DFD8-2013-40A2-8CE5-0CB5ABE5CD54}">
-  <dimension ref="A1:I167"/>
+  <dimension ref="A1:I168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3702,34 +3719,31 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="E7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="I8">
-        <v>0</v>
+      <c r="F8" s="2" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -3737,19 +3751,17 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -3757,17 +3769,19 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -3775,16 +3789,17 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
+        <v>173</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -3798,7 +3813,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3815,7 +3830,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3832,7 +3847,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3849,7 +3864,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3866,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -3883,7 +3898,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3900,7 +3915,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3917,7 +3932,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3934,7 +3949,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3951,7 +3966,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -3962,16 +3977,16 @@
         <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
-      </c>
-      <c r="C22" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3979,16 +3994,13 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C23" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D23">
         <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>169</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -3996,18 +4008,20 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
       <c r="I24">
         <v>0</v>
       </c>
@@ -4017,19 +4031,17 @@
         <v>158</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>176</v>
-      </c>
+      <c r="F25" s="2"/>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,17 +4049,19 @@
         <v>158</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -4055,16 +4069,17 @@
         <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>173</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -4078,7 +4093,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -4095,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -4112,7 +4127,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -4129,7 +4144,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -4146,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -4163,7 +4178,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -4180,7 +4195,7 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -4197,7 +4212,7 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -4214,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4231,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -4242,16 +4257,16 @@
         <v>158</v>
       </c>
       <c r="B38" t="s">
-        <v>171</v>
-      </c>
-      <c r="C38" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -4259,16 +4274,13 @@
         <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D39">
         <v>0</v>
-      </c>
-      <c r="F39" t="s">
-        <v>177</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4276,18 +4288,20 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>177</v>
+      </c>
       <c r="I40">
         <v>0</v>
       </c>
@@ -4297,19 +4311,17 @@
         <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>178</v>
-      </c>
+      <c r="F41" s="2"/>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -4317,17 +4329,19 @@
         <v>159</v>
       </c>
       <c r="B42" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="F42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -4335,16 +4349,17 @@
         <v>159</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C43" t="s">
+        <v>173</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>70</v>
-      </c>
+      <c r="F43" s="2"/>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -4358,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4375,7 +4390,7 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4392,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4409,7 +4424,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -4426,7 +4441,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4443,7 +4458,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4460,7 +4475,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4477,7 +4492,7 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -4494,7 +4509,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4511,7 +4526,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -4522,16 +4537,16 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C54" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>75</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -4539,16 +4554,13 @@
         <v>159</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D55">
         <v>0</v>
-      </c>
-      <c r="F55" t="s">
-        <v>179</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4556,18 +4568,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B56" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="F56" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
       <c r="I56">
         <v>0</v>
       </c>
@@ -4577,19 +4591,17 @@
         <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="F57" s="2"/>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -4597,17 +4609,19 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="I58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -4615,16 +4629,17 @@
         <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C59" t="s">
+        <v>173</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
-        <v>76</v>
-      </c>
+      <c r="F59" s="2"/>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -4638,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -4655,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -4672,7 +4687,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -4689,7 +4704,7 @@
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -4706,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -4723,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="E65" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -4740,7 +4755,7 @@
         <v>1</v>
       </c>
       <c r="E66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -4757,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="E67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -4774,7 +4789,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -4791,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -4802,16 +4817,16 @@
         <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>81</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -4819,16 +4834,13 @@
         <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D71">
         <v>0</v>
-      </c>
-      <c r="F71" t="s">
-        <v>180</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4836,18 +4848,20 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="F72" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F72" t="s">
+        <v>180</v>
+      </c>
       <c r="I72">
         <v>0</v>
       </c>
@@ -4857,19 +4871,17 @@
         <v>161</v>
       </c>
       <c r="B73" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="F73" s="2" t="s">
-        <v>188</v>
-      </c>
+      <c r="F73" s="2"/>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -4877,17 +4889,19 @@
         <v>161</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="F74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>188</v>
+      </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -4895,16 +4909,17 @@
         <v>161</v>
       </c>
       <c r="B75" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" t="s">
-        <v>82</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -4918,7 +4933,7 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -4935,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4952,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -4969,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -4986,7 +5001,7 @@
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -5003,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -5020,7 +5035,7 @@
         <v>1</v>
       </c>
       <c r="E82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -5037,7 +5052,7 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -5054,7 +5069,7 @@
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -5071,7 +5086,7 @@
         <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -5082,16 +5097,16 @@
         <v>161</v>
       </c>
       <c r="B86" t="s">
-        <v>171</v>
-      </c>
-      <c r="C86" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -5099,16 +5114,13 @@
         <v>161</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C87" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D87">
         <v>0</v>
-      </c>
-      <c r="F87" t="s">
-        <v>181</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5116,18 +5128,20 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B88" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C88" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D88">
-        <v>1</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F88" t="s">
+        <v>181</v>
+      </c>
       <c r="I88">
         <v>0</v>
       </c>
@@ -5137,19 +5151,17 @@
         <v>162</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>189</v>
-      </c>
+      <c r="F89" s="2"/>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -5157,17 +5169,19 @@
         <v>162</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C90" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D90">
         <v>1</v>
       </c>
-      <c r="F90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -5175,16 +5189,17 @@
         <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C91" t="s">
+        <v>173</v>
       </c>
       <c r="D91">
         <v>1</v>
       </c>
-      <c r="E91" t="s">
-        <v>88</v>
-      </c>
+      <c r="F91" s="2"/>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -5198,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="I92">
         <v>1</v>
@@ -5215,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -5232,7 +5247,7 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -5249,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -5266,7 +5281,7 @@
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -5283,7 +5298,7 @@
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -5300,7 +5315,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -5317,7 +5332,7 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5334,7 +5349,7 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -5351,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -5362,16 +5377,16 @@
         <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>171</v>
-      </c>
-      <c r="C102" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>93</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -5379,16 +5394,13 @@
         <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C103" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D103">
         <v>0</v>
-      </c>
-      <c r="F103" t="s">
-        <v>182</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -5396,18 +5408,20 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B104" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C104" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D104">
-        <v>1</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F104" t="s">
+        <v>182</v>
+      </c>
       <c r="I104">
         <v>0</v>
       </c>
@@ -5417,19 +5431,17 @@
         <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C105" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="F105" s="2" t="s">
-        <v>190</v>
-      </c>
+      <c r="F105" s="2"/>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -5437,17 +5449,19 @@
         <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C106" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="F106" s="2"/>
+      <c r="F106" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="I106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -5455,16 +5469,17 @@
         <v>163</v>
       </c>
       <c r="B107" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C107" t="s">
+        <v>173</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" t="s">
-        <v>94</v>
-      </c>
+      <c r="F107" s="2"/>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -5478,7 +5493,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -5495,7 +5510,7 @@
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -5512,7 +5527,7 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -5529,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5546,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5563,7 +5578,7 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="I113">
         <v>1</v>
@@ -5580,7 +5595,7 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -5597,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -5614,7 +5629,7 @@
         <v>1</v>
       </c>
       <c r="E116" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -5631,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="E117" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -5642,16 +5657,16 @@
         <v>163</v>
       </c>
       <c r="B118" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>117</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -5659,16 +5674,13 @@
         <v>163</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C119" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D119">
         <v>0</v>
-      </c>
-      <c r="F119" t="s">
-        <v>183</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -5676,18 +5688,20 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B120" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C120" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D120">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F120" t="s">
+        <v>183</v>
+      </c>
       <c r="I120">
         <v>0</v>
       </c>
@@ -5697,19 +5711,17 @@
         <v>164</v>
       </c>
       <c r="B121" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="F121" s="2" t="s">
-        <v>191</v>
-      </c>
+      <c r="F121" s="2"/>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -5717,17 +5729,19 @@
         <v>164</v>
       </c>
       <c r="B122" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C122" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D122">
         <v>1</v>
       </c>
-      <c r="F122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="I122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -5735,16 +5749,17 @@
         <v>164</v>
       </c>
       <c r="B123" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C123" t="s">
+        <v>173</v>
       </c>
       <c r="D123">
         <v>1</v>
       </c>
-      <c r="E123" t="s">
-        <v>95</v>
-      </c>
+      <c r="F123" s="2"/>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -5758,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -5775,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="E125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -5792,7 +5807,7 @@
         <v>1</v>
       </c>
       <c r="E126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -5809,7 +5824,7 @@
         <v>1</v>
       </c>
       <c r="E127" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -5826,7 +5841,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -5843,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -5860,7 +5875,7 @@
         <v>1</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -5877,7 +5892,7 @@
         <v>1</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5894,7 +5909,7 @@
         <v>1</v>
       </c>
       <c r="E132" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -5911,7 +5926,7 @@
         <v>1</v>
       </c>
       <c r="E133" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -5922,16 +5937,16 @@
         <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>171</v>
-      </c>
-      <c r="C134" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>100</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5939,16 +5954,13 @@
         <v>164</v>
       </c>
       <c r="B135" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C135" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D135">
         <v>0</v>
-      </c>
-      <c r="F135" t="s">
-        <v>184</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -5956,18 +5968,20 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B136" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C136" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D136">
-        <v>1</v>
-      </c>
-      <c r="F136" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F136" t="s">
+        <v>184</v>
+      </c>
       <c r="I136">
         <v>0</v>
       </c>
@@ -5977,19 +5991,17 @@
         <v>165</v>
       </c>
       <c r="B137" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D137">
         <v>1</v>
       </c>
-      <c r="F137" s="2" t="s">
-        <v>192</v>
-      </c>
+      <c r="F137" s="2"/>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5997,17 +6009,19 @@
         <v>165</v>
       </c>
       <c r="B138" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C138" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="F138" s="2"/>
+      <c r="F138" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -6015,16 +6029,17 @@
         <v>165</v>
       </c>
       <c r="B139" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C139" t="s">
+        <v>173</v>
       </c>
       <c r="D139">
         <v>1</v>
       </c>
-      <c r="E139" t="s">
-        <v>101</v>
-      </c>
+      <c r="F139" s="2"/>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -6038,7 +6053,7 @@
         <v>1</v>
       </c>
       <c r="E140" t="s">
-        <v>148</v>
+        <v>101</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -6055,7 +6070,7 @@
         <v>1</v>
       </c>
       <c r="E141" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -6072,7 +6087,7 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6089,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="E143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -6106,7 +6121,7 @@
         <v>1</v>
       </c>
       <c r="E144" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -6123,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="E145" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -6140,7 +6155,7 @@
         <v>1</v>
       </c>
       <c r="E146" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -6157,7 +6172,7 @@
         <v>1</v>
       </c>
       <c r="E147" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -6174,7 +6189,7 @@
         <v>1</v>
       </c>
       <c r="E148" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -6191,7 +6206,7 @@
         <v>1</v>
       </c>
       <c r="E149" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -6202,16 +6217,16 @@
         <v>165</v>
       </c>
       <c r="B150" t="s">
-        <v>171</v>
-      </c>
-      <c r="C150" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>106</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -6219,16 +6234,13 @@
         <v>165</v>
       </c>
       <c r="B151" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C151" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D151">
         <v>0</v>
-      </c>
-      <c r="F151" t="s">
-        <v>185</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -6236,18 +6248,20 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B152" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C152" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D152">
-        <v>1</v>
-      </c>
-      <c r="F152" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="F152" t="s">
+        <v>185</v>
+      </c>
       <c r="I152">
         <v>0</v>
       </c>
@@ -6257,19 +6271,17 @@
         <v>166</v>
       </c>
       <c r="B153" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="D153">
         <v>1</v>
       </c>
-      <c r="F153" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="F153" s="2"/>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -6277,17 +6289,19 @@
         <v>166</v>
       </c>
       <c r="B154" t="s">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="C154" t="s">
-        <v>173</v>
+        <v>16</v>
       </c>
       <c r="D154">
         <v>1</v>
       </c>
-      <c r="F154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -6295,16 +6309,17 @@
         <v>166</v>
       </c>
       <c r="B155" t="s">
-        <v>62</v>
+        <v>171</v>
+      </c>
+      <c r="C155" t="s">
+        <v>173</v>
       </c>
       <c r="D155">
         <v>1</v>
       </c>
-      <c r="E155" t="s">
-        <v>107</v>
-      </c>
+      <c r="F155" s="2"/>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -6318,7 +6333,7 @@
         <v>1</v>
       </c>
       <c r="E156" t="s">
-        <v>153</v>
+        <v>107</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6335,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I157">
         <v>1</v>
@@ -6352,7 +6367,7 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I158">
         <v>1</v>
@@ -6369,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="E159" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6386,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I160">
         <v>1</v>
@@ -6403,7 +6418,7 @@
         <v>1</v>
       </c>
       <c r="E161" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="I161">
         <v>1</v>
@@ -6420,7 +6435,7 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I162">
         <v>1</v>
@@ -6437,7 +6452,7 @@
         <v>1</v>
       </c>
       <c r="E163" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -6454,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="E164" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I164">
         <v>1</v>
@@ -6471,7 +6486,7 @@
         <v>1</v>
       </c>
       <c r="E165" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -6482,16 +6497,16 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>171</v>
-      </c>
-      <c r="C166" t="s">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="E166" t="s">
+        <v>112</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6499,18 +6514,35 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C167" t="s">
+        <v>172</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
         <v>64</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C168" t="s">
         <v>168</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="F167" t="s">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="s">
         <v>186</v>
       </c>
-      <c r="I167">
+      <c r="I168">
         <v>0</v>
       </c>
     </row>
@@ -6523,16 +6555,16 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1" xr:uid="{525B56D9-62C4-48D6-967A-354412BC18DC}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{C154652A-BDF9-4615-B1E4-499FEF1EDC11}"/>
-    <hyperlink ref="F25" r:id="rId3" xr:uid="{30629169-7EA1-4243-84C3-FA4D064C9822}"/>
-    <hyperlink ref="F41" r:id="rId4" xr:uid="{AC7E6380-3928-4471-8B34-653513FE324C}"/>
-    <hyperlink ref="F57" r:id="rId5" xr:uid="{831A21C6-C66A-476B-9807-15FFCF98A76C}"/>
-    <hyperlink ref="F73" r:id="rId6" xr:uid="{491AE70B-7299-4601-BE3E-79603CE0F309}"/>
-    <hyperlink ref="F105" r:id="rId7" xr:uid="{41ECC269-CF81-4F58-9AF2-FDDD27815200}"/>
-    <hyperlink ref="F121" r:id="rId8" xr:uid="{D2C4EA41-24BE-43B2-90C6-EE10B5800DA2}"/>
-    <hyperlink ref="F137" r:id="rId9" xr:uid="{BBC1F586-A111-4249-9776-C2B3698C39CB}"/>
-    <hyperlink ref="F153" r:id="rId10" xr:uid="{6A654793-5A62-49E1-929A-410DB9EC0DD3}"/>
-    <hyperlink ref="F89" r:id="rId11" xr:uid="{1512ACF6-D2A6-4364-81B1-D816FFF32408}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{C154652A-BDF9-4615-B1E4-499FEF1EDC11}"/>
+    <hyperlink ref="F26" r:id="rId3" xr:uid="{30629169-7EA1-4243-84C3-FA4D064C9822}"/>
+    <hyperlink ref="F42" r:id="rId4" xr:uid="{AC7E6380-3928-4471-8B34-653513FE324C}"/>
+    <hyperlink ref="F58" r:id="rId5" xr:uid="{831A21C6-C66A-476B-9807-15FFCF98A76C}"/>
+    <hyperlink ref="F74" r:id="rId6" xr:uid="{491AE70B-7299-4601-BE3E-79603CE0F309}"/>
+    <hyperlink ref="F106" r:id="rId7" xr:uid="{41ECC269-CF81-4F58-9AF2-FDDD27815200}"/>
+    <hyperlink ref="F122" r:id="rId8" xr:uid="{D2C4EA41-24BE-43B2-90C6-EE10B5800DA2}"/>
+    <hyperlink ref="F138" r:id="rId9" xr:uid="{BBC1F586-A111-4249-9776-C2B3698C39CB}"/>
+    <hyperlink ref="F154" r:id="rId10" xr:uid="{6A654793-5A62-49E1-929A-410DB9EC0DD3}"/>
+    <hyperlink ref="F90" r:id="rId11" xr:uid="{1512ACF6-D2A6-4364-81B1-D816FFF32408}"/>
     <hyperlink ref="F5" r:id="rId12" xr:uid="{1C3E1DFE-5FAA-4AB7-BF0B-0AC40EB08CB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
